--- a/src/test/java/resources/email.xlsx
+++ b/src/test/java/resources/email.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nerminbasaran/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nerminbasaran/IdeaProjects/testngprject07/src/test/java/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9876A040-371E-114A-8EDC-F1D46066C285}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD6D1F8-7F66-8243-A5DA-953A4E9E2830}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{2F2B6DCC-7499-5F4E-AA81-678C785A6AB4}"/>
   </bookViews>
@@ -33,10 +33,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>stevegregor2023@gmail.com</t>
+    <t>Password09062023</t>
   </si>
   <si>
-    <t>stevegregor123</t>
+    <t>abdurraheem.galileo@outlook.com</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -434,10 +434,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
